--- a/ValueSet-VSEstablecimientoDestinoCodigo.xlsx
+++ b/ValueSet-VSEstablecimientoDestinoCodigo.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/ValueSet-VSEstablecimientoDestinoCodigo.xlsx
+++ b/ValueSet-VSEstablecimientoDestinoCodigo.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/ValueSet-VSEstablecimientoDestinoCodigo.xlsx
+++ b/ValueSet-VSEstablecimientoDestinoCodigo.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/ValueSet-VSEstablecimientoDestinoCodigo.xlsx
+++ b/ValueSet-VSEstablecimientoDestinoCodigo.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Establecimiento Destino Codigo</t>
+    <t>Establecimiento Destino Codigo ejemplos hechos en base a este documento con los códigos DEIS (https://datos.gob.cl/dataset/establecimientos-de-salud-vigentes)</t>
   </si>
   <si>
     <t>Status</t>

--- a/ValueSet-VSEstablecimientoDestinoCodigo.xlsx
+++ b/ValueSet-VSEstablecimientoDestinoCodigo.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Establecimiento Destino Codigo ejemplos hechos en base a este documento con los códigos DEIS (https://datos.gob.cl/dataset/establecimientos-de-salud-vigentes)</t>
+    <t>Establecimiento Destino Codigo</t>
   </si>
   <si>
     <t>Status</t>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Establecimiento Destino Codigo ejemplos hechos en base a este documento con los [Códigos DEIS del establecimientos](https://datos.gob.cl/dataset/establecimientos-de-salud-vigentes)</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -345,27 +348,27 @@
         <v>22</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -387,28 +390,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ValueSet-VSEstablecimientoDestinoCodigo.xlsx
+++ b/ValueSet-VSEstablecimientoDestinoCodigo.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
